--- a/data/income_statement/2digits/total/27_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/27_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>27-Manufacture of electrical equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>27-Manufacture of electrical equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>28010607.21246</v>
@@ -956,37 +862,42 @@
         <v>31907565.21449</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>41933556.07630999</v>
+        <v>41933556.07631001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>45788899.80341</v>
+        <v>45836834.18456</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>53409904.59364</v>
+        <v>53463610.41271</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>57392467.83582</v>
+        <v>59063090.28114</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>46801816.15324</v>
+        <v>66095267.69896</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>73064039.6036</v>
+        <v>74216832.10267</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>95225445.09142999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>122033882.52862</v>
+        <v>122057594.46678</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>135462580.43349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>135754351.87945</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>173273724.4</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>16858121.03542</v>
@@ -998,34 +909,39 @@
         <v>25818487.57477</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>28068573.57755</v>
+        <v>28112623.33788</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>32519524.02148</v>
+        <v>32535152.69876</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>35047457.19944</v>
+        <v>36463808.14549</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>30344996.06912</v>
+        <v>40986961.99725</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>45265930.82647</v>
+        <v>46052132.31958999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>59237222.8037</v>
+        <v>59237222.80370001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>70012801.69621</v>
+        <v>70034303.06436999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>75806739.59313001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>76040471.04029001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>100674251.578</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>10615110.68881</v>
@@ -1037,34 +953,39 @@
         <v>15251822.05545</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>16805210.72251</v>
+        <v>16808327.65963</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>19758676.94354</v>
+        <v>19796690.81541</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>21168421.42376</v>
+        <v>21420134.8862</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>16075472.65023</v>
+        <v>23707727.14376</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>26122135.18044</v>
+        <v>26470344.40589</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>33581584.82717</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>48712599.92222</v>
+        <v>48714731.65703</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>56016360.93534</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>56073329.10898</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>70403172.02500001</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>537375.4882299999</v>
@@ -1073,37 +994,42 @@
         <v>577154.5735800001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>863246.4460899999</v>
+        <v>863246.44609</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>915115.5033499999</v>
+        <v>915883.1870499999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1131703.62862</v>
+        <v>1131766.89854</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1176589.21262</v>
+        <v>1179147.24945</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>381347.43389</v>
+        <v>1400578.55795</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1675973.59669</v>
+        <v>1694355.37719</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>2406637.46056</v>
+        <v>2406637.460560001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>3308480.91019</v>
+        <v>3308559.74538</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>3639479.90502</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>3640551.73018</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2196300.797</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1484442.35301</v>
@@ -1115,34 +1041,39 @@
         <v>1784782.7827</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2321812.85436</v>
+        <v>2322404.84964</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2955222.61191</v>
+        <v>2955350.242079999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2732071.015529999</v>
+        <v>3445482.5854</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2342238.53758</v>
+        <v>3780572.96737</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>4274448.53391</v>
+        <v>4314889.07749</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>5100556.73032</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>6612956.137420001</v>
+        <v>6613197.60229</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>8246306.15824</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>8256012.581859998</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>7948188.468</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>287745.87148</v>
@@ -1154,34 +1085,39 @@
         <v>232792.06194</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>289547.14222</v>
+        <v>289975.45504</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>359703.94165</v>
+        <v>359831.57182</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>451918.00443</v>
+        <v>452560.36948</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>370009.2625200001</v>
+        <v>481809.9313100001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>667552.4219699999</v>
+        <v>691219.4087499999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>778092.82566</v>
+        <v>778092.8256600001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>939872.77686</v>
+        <v>940112.53322</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1315928.56851</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1317994.25431</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1247045.113</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1031914.3653</v>
@@ -1193,34 +1129,39 @@
         <v>1320427.43237</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1767317.71384</v>
+        <v>1767481.3963</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2313178.60491</v>
+        <v>2313178.604910001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1946202.9672</v>
+        <v>2637002.15394</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1828870.86805</v>
+        <v>2885112.07789</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3189418.24866</v>
+        <v>3205825.34988</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>3768941.233389999</v>
+        <v>3768941.23339</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>4759637.81607</v>
+        <v>4759637.83458</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>5971466.081669999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5978710.72047</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>5470048.266</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>164782.11623</v>
@@ -1235,31 +1176,36 @@
         <v>264947.9983</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>282340.0653500001</v>
+        <v>282340.06535</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>333950.0439</v>
+        <v>355920.06198</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>143358.40701</v>
+        <v>413650.9581699999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>417477.8632799999</v>
+        <v>417844.31886</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>553522.6712699999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>913445.54449</v>
+        <v>913447.2344900001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>958911.50806</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>959307.6070799999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1231095.089</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>26526164.85945</v>
@@ -1268,37 +1214,42 @@
         <v>30287453.54329</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>40148773.29361</v>
+        <v>40148773.29360999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>43467086.94905</v>
+        <v>43514429.33492</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>50454681.98173001</v>
+        <v>50508260.17063001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>54660396.82028999</v>
+        <v>55617607.69574</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>44459577.61566</v>
+        <v>62314694.73159</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>68789591.06969</v>
+        <v>69901943.02518</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>90124888.36111</v>
+        <v>90124888.36110999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>115420926.3912</v>
+        <v>115444396.86449</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>127216274.27525</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>127498339.29759</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>165325535.932</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>20445185.20218</v>
@@ -1307,37 +1258,42 @@
         <v>24452271.24698</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>32602253.61229999</v>
+        <v>32602253.61230001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>35879341.05261</v>
+        <v>35917435.58788</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>40459973.83425</v>
+        <v>40506842.9076</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>44425828.47069</v>
+        <v>45230564.52956</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>36231345.69957999</v>
+        <v>49849480.59961</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>54850809.40015998</v>
+        <v>55710692.72128</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>73624594.81421</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>93596709.75439002</v>
+        <v>93617853.00705001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>105252264.33206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>105489124.48881</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>132777233.647</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>15973195.08865</v>
@@ -1349,37 +1305,42 @@
         <v>25117748.32866</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>28071316.06171</v>
+        <v>28100801.24761</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>31749491.89416</v>
+        <v>31795791.12746</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>35068537.43872</v>
+        <v>35863850.00061999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>29699766.38675</v>
+        <v>39367069.88375</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>42929342.54819001</v>
+        <v>43709115.26927</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>57201405.57188</v>
+        <v>57201405.57188001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>74701251.54366</v>
+        <v>74706479.39514999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>84768872.20310001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>84929595.39385</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>105195703.845</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>2747548.24484</v>
+        <v>2747548.244840001</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>3921381.95909</v>
@@ -1388,34 +1349,39 @@
         <v>5354397.12653</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>5644982.39558</v>
+        <v>5652870.434090001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>6172155.64484</v>
+        <v>6172725.484890001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>6402577.44835</v>
+        <v>6409784.968950001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>4875308.51031</v>
+        <v>7381373.64612</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>8061257.909570001</v>
+        <v>8136852.811379999</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>10929004.70624</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>12707266.90371</v>
+        <v>12720583.73187</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>12715454.4828</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>12780715.58133</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>18610800.872</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1091167.25505</v>
@@ -1427,40 +1393,45 @@
         <v>1029947.50795</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>963743.22138</v>
+        <v>964464.5322399999</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>1185483.29349</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1431877.425259999</v>
+        <v>1433856.43099</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>849596.5029999999</v>
+        <v>1407646.86194</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2037972.20599</v>
+        <v>2042259.28029</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>2458661.129579999</v>
+        <v>2458661.12958</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2075881.56525</v>
+        <v>2078442.91792</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2918715.389450001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2929331.28218</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3185610.603</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>633274.61364</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>765277.28616</v>
+        <v>765277.2861599999</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>1100160.64916</v>
@@ -1472,31 +1443,36 @@
         <v>1352843.00176</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1522836.15836</v>
+        <v>1523073.129</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>806674.2995200001</v>
+        <v>1693390.2078</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1822236.73641</v>
+        <v>1822465.36034</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>3035523.406509999</v>
+        <v>3035523.40651</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>4112309.741770001</v>
+        <v>4112346.96211</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>4849222.25671</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4849482.231449999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>5785118.327</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>6080979.657269999</v>
+        <v>6080979.65727</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>5835182.296309999</v>
@@ -1505,73 +1481,83 @@
         <v>7546519.681310001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>7587745.89644</v>
+        <v>7596993.747040001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>9994708.147480002</v>
+        <v>10001417.26303</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>10234568.3496</v>
+        <v>10387043.16618</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>8228231.91608</v>
+        <v>12465214.13198</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>13938781.66953</v>
+        <v>14191250.3039</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>16500293.5469</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>21824216.63681</v>
+        <v>21826543.85744</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>21964009.94319</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>22009214.80878</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>32548302.285</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>3466487.367120001</v>
+        <v>3466487.36712</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>3813037.19983</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>4724203.60722</v>
+        <v>4724203.607220001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>5172800.11978</v>
+        <v>5176842.16154</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>5997229.38371</v>
+        <v>6001291.5901</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>6587830.530270001</v>
+        <v>6617355.16231</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>5087704.057740001</v>
+        <v>7776665.580940001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>8903164.753549999</v>
+        <v>9064988.330329999</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>9248955.28964</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>11366979.67429</v>
+        <v>11374703.88395</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>12907496.25917</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>12935758.31858</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>15289592.492</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>142322.81386</v>
@@ -1586,31 +1572,36 @@
         <v>206069.44459</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>262682.8111299999</v>
+        <v>262682.81113</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>283661.80607</v>
+        <v>283750.40273</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>219615.54927</v>
+        <v>385230.94144</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>417483.1654299999</v>
+        <v>421635.29398</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>468696.22319</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>562237.14515</v>
+        <v>562290.23805</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>725148.08247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>725170.8913199999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>899010.447</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>1801851.29786</v>
@@ -1622,34 +1613,39 @@
         <v>2523973.30188</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>2708272.26325</v>
+        <v>2709052.23216</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>3118170.70961</v>
+        <v>3120001.31459</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>3358049.33586</v>
+        <v>3371303.04743</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>2276843.25945</v>
+        <v>4006233.42064</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>4629236.304760001</v>
+        <v>4717842.72596</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>4374489.22932</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>5364604.07656</v>
+        <v>5365016.27109</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>5859818.20647</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>5865639.34886</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>7120936.172</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1522313.2554</v>
@@ -1661,34 +1657,39 @@
         <v>2016976.9476</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2258458.41194</v>
+        <v>2261720.48479</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2616375.86297</v>
+        <v>2618607.46438</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2946119.38834</v>
+        <v>2962301.71215</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2591245.24902</v>
+        <v>3385201.218859999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3856445.28336</v>
+        <v>3925510.31039</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>4405769.83713</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>5440138.452579999</v>
+        <v>5447397.374809999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>6322529.970229999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>6344948.0784</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>7269645.873</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>2614492.29015</v>
@@ -1700,34 +1701,39 @@
         <v>2822316.07409</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2414945.77666</v>
+        <v>2420151.5855</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>3997478.76377</v>
+        <v>4000125.67293</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>3646737.81933</v>
+        <v>3769688.00387</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>3140527.85834</v>
+        <v>4688548.55104</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>5035616.91598</v>
+        <v>5126261.97357</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>7251338.257260001</v>
+        <v>7251338.25726</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>10457236.96252</v>
+        <v>10451839.97349</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>9056513.68402</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>9073456.4902</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>17258709.793</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1382948.42002</v>
@@ -1739,34 +1745,39 @@
         <v>2192649.885790001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1796444.56895</v>
+        <v>1796854.297</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>3079449.66156</v>
+        <v>3080173.5312</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>3250594.52573</v>
+        <v>3338702.12873</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>4422199.54054</v>
+        <v>5657284.52824</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>4897271.10716</v>
+        <v>4999791.129020001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>6075483.171960001</v>
+        <v>6075483.17196</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>18938676.44005</v>
+        <v>18943812.13436</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>11335042.00649</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>11332580.44964</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>19579300.129</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>18961.35781</v>
@@ -1775,7 +1786,7 @@
         <v>61460.30209</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>75294.887</v>
+        <v>75294.88699999999</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>40963.45073</v>
@@ -1784,13 +1795,13 @@
         <v>208572.51872</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>115763.51194</v>
+        <v>119504.37474</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2093.10056</v>
+        <v>198228.16297</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>38853.58157</v>
+        <v>38872.52207</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>133751.14145</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>442702.98395</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>778413.079</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>18996.84621</v>
@@ -1829,22 +1845,27 @@
         <v>41927.66417</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>50501.12754</v>
+        <v>52154.74128</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>103250.49176</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>60809.51923999999</v>
+        <v>60809.51924</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>39164.04015000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>39164.04015</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>7760.136</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>134956.03665</v>
@@ -1856,40 +1877,45 @@
         <v>120763.44055</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>152162.5515</v>
+        <v>152236.04839</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>144045.6417</v>
+        <v>144056.78911</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>173550.73077</v>
+        <v>174482.62679</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>247663.68067</v>
+        <v>283356.4959</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>300376.48057</v>
+        <v>304824.39317</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>281718.04181</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>891341.5838300001</v>
+        <v>891348.29724</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>981355.3659</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>982463.81317</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>606815.376</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>7627.07465</v>
+        <v>7627.074649999999</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>7387.80149</v>
+        <v>7387.801489999999</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>195849.42233</v>
@@ -1904,7 +1930,7 @@
         <v>9115.87191</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>6181.83362</v>
+        <v>10668.99438</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>18207.24129</v>
@@ -1913,16 +1939,21 @@
         <v>46593.01473</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>43695.28966999999</v>
+        <v>43695.28967</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>85722.63408</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>14518.789</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>118182.03373</v>
@@ -1940,13 +1971,13 @@
         <v>162817.72796</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>88040.49459999999</v>
+        <v>88081.85406</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>75667.38111999999</v>
+        <v>100513.84988</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>106066.02022</v>
+        <v>106691.49921</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>74856.78693</v>
@@ -1957,20 +1988,25 @@
       <c r="M30" s="48" t="n">
         <v>149588.96969</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>167193.074</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>3028.86926</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>24635.28615000001</v>
+        <v>24635.28615</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>17882.38687</v>
+        <v>17882.38687000001</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>23435.18296</v>
@@ -1979,31 +2015,36 @@
         <v>25785.53063</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>28626.79597</v>
+        <v>28626.79596999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>273718.53426</v>
+        <v>273751.58373</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>158987.2925</v>
+        <v>159038.40842</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>21047.43728</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>147594.28693</v>
+        <v>147664.16293</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>105095.98476</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>105095.88476</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>47441.56</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>827769.7223999999</v>
+        <v>827769.7224000001</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>694168.8267699999</v>
@@ -2012,37 +2053,42 @@
         <v>1266722.63224</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1120918.38882</v>
+        <v>1121161.87388</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2126361.04499</v>
+        <v>2127066.16123</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2296381.21892</v>
+        <v>2366409.60453</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>3145726.16096</v>
+        <v>3975190.16814</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3384786.07693</v>
+        <v>3450516.3923</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>4448861.59733</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>14409937.2085</v>
+        <v>14411632.34691</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>7762459.438429999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>7756459.760430001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>15893294.637</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>85702.04831999999</v>
+        <v>85702.04832</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>41973.01192</v>
@@ -2054,16 +2100,16 @@
         <v>68972.97392</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>59008.10383000001</v>
+        <v>59008.10383</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>82762.96175000002</v>
+        <v>91048.82628000001</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>72539.53683</v>
+        <v>90530.63548999999</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>95156.88751</v>
+        <v>113850.59719</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>166759.25864</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>268817.51644</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>240780.126</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>18.6493</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>1848.97085</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>5238.251</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>167705.78169</v>
@@ -2129,79 +2185,89 @@
         <v>302091.2236</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>291280.64971</v>
+        <v>291373.39581</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>330368.54823</v>
+        <v>330376.15422</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>439267.26464</v>
+        <v>444346.4992200001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>556489.4347000001</v>
+        <v>682924.7599299999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>744054.3364400001</v>
+        <v>755353.2715</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>798173.70898</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1937459.48312</v>
+        <v>1940823.44961</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1498286.10224</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1500715.87612</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1817845.101</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1114033.2654</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>990549.7497299999</v>
+        <v>990549.74973</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>2153205.55826</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1558720.67401</v>
+        <v>1558936.22964</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>3033056.8802</v>
+        <v>3034560.43486</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3108267.239079999</v>
+        <v>3137398.85072</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>4226843.71088</v>
+        <v>5115069.92284</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>4128912.09895</v>
+        <v>4244633.78942</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>5548903.82778</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>16005342.61552</v>
+        <v>16006576.86459</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>8963897.3983</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>8960629.80844</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>16969561.391</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>21803.37958</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>17925.20370999999</v>
+        <v>17925.20371</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>18272.04231</v>
@@ -2210,55 +2276,60 @@
         <v>27077.89422</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>35737.50785</v>
+        <v>35737.50784999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>43581.75276</v>
+        <v>43643.41572999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>26480.16302</v>
+        <v>33533.09548</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>35884.86601999999</v>
+        <v>35884.86602</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>43677.24942000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>49253.19684</v>
+        <v>49273.17208</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>53906.26928</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>53923.82610000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>93714.00199999999</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>221117.36332</v>
+        <v>221117.3633200001</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>196191.48265</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>279273.5244999999</v>
+        <v>279273.5245</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>222496.86626</v>
+        <v>222506.01362</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>243188.66071</v>
+        <v>243223.09571</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>268475.30082</v>
+        <v>269500.08784</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>138932.34406</v>
+        <v>259451.00983</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>330687.3296400001</v>
+        <v>338604.94183</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>319690.90588</v>
@@ -2267,13 +2338,18 @@
         <v>661802.0605899999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>463246.0939200001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>463294.09392</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>638679.112</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1476.38454</v>
@@ -2297,10 +2373,10 @@
         <v>20905.99961</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>2901.00614</v>
+        <v>2901.34744</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>9447.388719999999</v>
+        <v>9447.388720000001</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>148482.3905</v>
@@ -2308,14 +2384,19 @@
       <c r="M39" s="48" t="n">
         <v>73002.63464</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>23041.024</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>708914.5523900001</v>
+        <v>708914.55239</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>592300.57622</v>
@@ -2324,34 +2405,39 @@
         <v>1566104.06399</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1007793.03093</v>
+        <v>1007999.4392</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2291069.24554</v>
+        <v>2292538.2073</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2490768.21839</v>
+        <v>2506771.253</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3555364.5435</v>
+        <v>4268881.8189</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3388723.04776</v>
+        <v>3455076.42224</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>4518149.32689</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>14220996.92742</v>
+        <v>14221963.38895</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>7577614.926820001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>7573875.61957</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>15192339.333</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>36471.95506</v>
@@ -2363,34 +2449,39 @@
         <v>68692.99626999999</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>54446.68383</v>
+        <v>54446.68383000001</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>90448.30494999999</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>82338.96780000001</v>
+        <v>91776.50097999998</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>76361.47839999999</v>
+        <v>94252.27507999999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>106843.27898</v>
+        <v>127139.52047</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>130510.7153</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>272842.59308</v>
+        <v>273089.7632300001</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>239111.25798</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>242383.725</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>27.77529</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>1.05905</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.388</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>124221.85522</v>
@@ -2441,37 +2537,42 @@
         <v>199710.05628</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>233994.7328</v>
+        <v>233994.7328000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>343667.2278700001</v>
+        <v>343667.38577</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>208953.47243</v>
+        <v>211558.06629</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>408751.5388699999</v>
+        <v>437998.08052</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>263872.21445</v>
+        <v>285026.33546</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>527404.33462</v>
+        <v>527404.3346200001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>651965.44709</v>
+        <v>651966.08924</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>557015.1566099999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>557421.31718</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>779403.807</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>937702.6447599998</v>
+        <v>937702.6447599999</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>582574.38111</v>
@@ -2480,34 +2581,39 @@
         <v>1166686.99607</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>822663.9637099998</v>
+        <v>823065.7276300001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1696868.30429</v>
+        <v>1697180.74152</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1296791.91944</v>
+        <v>1400289.02032</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1289713.29255</v>
+        <v>2382013.93527</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2735171.408290001</v>
+        <v>2744396.2852</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>3341975.4753</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>7022809.634849999</v>
+        <v>7022859.89612</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>5619548.15371</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>5628894.57587</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>7300180.413</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>629923.51226</v>
@@ -2519,34 +2625,39 @@
         <v>838576.05195</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>659591.6234800001</v>
+        <v>659993.3874</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>902554.24803</v>
+        <v>902866.6852599999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>961944.3366500001</v>
+        <v>1046236.58391</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1123207.73716</v>
+        <v>1493352.52352</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1702165.98099</v>
+        <v>1711390.8579</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>2162290.80491</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>4307754.42946</v>
+        <v>4307804.69073</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>4008068.303830001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>4017414.72599</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>4574671.638</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>307779.1325</v>
@@ -2561,13 +2672,13 @@
         <v>163072.34023</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>794314.0562600002</v>
+        <v>794314.05626</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>334847.58279</v>
+        <v>354052.43641</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>166505.55539</v>
+        <v>888661.41175</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>1033005.4273</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>1611479.84988</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>2725508.775</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>1945704.80001</v>
@@ -2597,34 +2713,39 @@
         <v>1695073.40555</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1830005.70789</v>
+        <v>1835003.92523</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>2347003.24084</v>
+        <v>2348558.02775</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>2492273.18654</v>
+        <v>2570702.26156</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2046170.39545</v>
+        <v>2848749.22117</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>3068804.5159</v>
+        <v>3137023.02797</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>4435942.12614</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>6367761.152199999</v>
+        <v>6366215.347139999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>5808110.1385</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>5816512.55553</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>12568268.118</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>133133.54471</v>
@@ -2636,34 +2757,39 @@
         <v>203984.56083</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>169794.74575</v>
+        <v>169970.00345</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>378499.92685</v>
+        <v>378647.93409</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>318019.52262</v>
+        <v>322817.31889</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>433725.44041</v>
+        <v>564717.6767899999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>566490.3814900001</v>
+        <v>568439.5151999999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>503428.27919</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>635368.9721600001</v>
+        <v>635631.55105</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>571987.49376</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>573247.87261</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1389878.605</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>6596.977059999999</v>
@@ -2675,34 +2801,39 @@
         <v>62436.58667</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>9180.733689999999</v>
+        <v>9180.733690000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>4938.144969999999</v>
+        <v>4938.144969999998</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>8366.305109999999</v>
+        <v>8371.805109999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>34665.43283000001</v>
+        <v>34947.2591</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>12272.98372</v>
+        <v>12334.43579</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>33354.0548</v>
+        <v>33354.05479999999</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>21068.0361</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>16724.73822</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>16406.37744</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>42331.475</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>126536.56765</v>
@@ -2714,73 +2845,83 @@
         <v>141547.97416</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>160614.01206</v>
+        <v>160789.26976</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>373561.7818799999</v>
+        <v>373709.78912</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>309653.21751</v>
+        <v>314445.51378</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>399060.00758</v>
+        <v>529770.41769</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>554217.3977699999</v>
+        <v>556105.07941</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>470074.22439</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>614300.9360600001</v>
+        <v>614563.5149500001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>555262.7555399999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>556841.4951700001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1347547.13</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>184754.31669</v>
+        <v>184754.3166900001</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>135554.26223</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>502322.67923</v>
+        <v>502322.6792300001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>244995.17591</v>
+        <v>245021.94002</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>265736.1343100001</v>
+        <v>265757.85643</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>370245.7289299999</v>
+        <v>378235.71472</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>320856.8672</v>
+        <v>395111.5064199999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>655740.65887</v>
+        <v>664485.5069500001</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>402689.89052</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>712847.1934599999</v>
+        <v>713780.30953</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>653973.95442</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>657304.5409100001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>726693.421</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>34435.95018</v>
@@ -2792,34 +2933,39 @@
         <v>25139.9586</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>60808.38315</v>
+        <v>60808.38314999999</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>69224.87287000001</v>
+        <v>69224.87286999999</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>52641.86773999999</v>
+        <v>53743.45135</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>49865.30688</v>
+        <v>56541.3262</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>52520.62319</v>
+        <v>52520.62319000001</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>72451.96390999999</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>107859.37812</v>
+        <v>107969.28403</v>
       </c>
       <c r="M52" s="48" t="n">
         <v>130848.67071</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>188088.673</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>25388.35019</v>
@@ -2831,34 +2977,39 @@
         <v>31533.0818</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>53399.46847000002</v>
+        <v>53399.46846999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>24230.70288</v>
+        <v>24231.21338000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>36532.01764999999</v>
+        <v>36664.56249</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>68360.87439</v>
+        <v>74108.92030000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>95077.84877</v>
+        <v>95426.18837999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>67415.70959999999</v>
+        <v>67415.7096</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>84016.27155999998</v>
+        <v>84018.02602999998</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>68513.77969000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>68897.81912</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>113350.952</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>124930.01632</v>
@@ -2867,37 +3018,42 @@
         <v>97931.55653</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>445649.63883</v>
+        <v>445649.6388300001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>130787.32429</v>
+        <v>130814.0884</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>172280.55856</v>
+        <v>172301.77018</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>281071.84354</v>
+        <v>287827.70088</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>202630.68593</v>
+        <v>264461.25992</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>508142.18691</v>
+        <v>516538.69538</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>262822.21701</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>520971.5437799999</v>
+        <v>521792.99947</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>454611.50402</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>457558.0510799999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>425253.796</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>1894084.02803</v>
@@ -2909,34 +3065,39 @@
         <v>1396735.28715</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1754805.27773</v>
+        <v>1759951.98866</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>2459767.03338</v>
+        <v>2461448.10541</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>2440046.98023</v>
+        <v>2515283.865730001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2159038.96866</v>
+        <v>3018355.39154</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>2979554.23852</v>
+        <v>3040977.03622</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>4536680.51481</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>6290282.930900001</v>
+        <v>6288066.58866</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>5726123.67784</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>5732455.88723</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>13231453.302</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>358356.87918</v>
@@ -2948,34 +3109,39 @@
         <v>363958.48904</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>332899.8497500001</v>
+        <v>333944.8949199999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>385335.22122</v>
+        <v>385792.41635</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>441156.08517</v>
+        <v>448482.33315</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>349356.12351</v>
+        <v>471515.1603400001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>412572.7770500001</v>
+        <v>426406.04988</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>461248.40032</v>
+        <v>461248.4003200001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>791947.5091799998</v>
+        <v>792489.3348200001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>601559.04406</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>604698.1369400001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1135357.347</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>1535727.14885</v>
@@ -2987,31 +3153,34 @@
         <v>1032776.79811</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1421905.42798</v>
+        <v>1426007.09374</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>2074431.81216</v>
+        <v>2075655.68906</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1998890.89506</v>
+        <v>2066801.53258</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1809682.84515</v>
+        <v>2546840.2312</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>2566981.46147</v>
+        <v>2614570.98634</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>4075432.11449</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>5498335.42172</v>
+        <v>5495577.25384</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>5124564.63378</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>5127757.750290001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>12096095.955</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>3162</v>
@@ -3041,31 +3213,34 @@
         <v>3443</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3498</v>
+        <v>3500</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3568</v>
+        <v>3574</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3718</v>
+        <v>3728</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3879</v>
+        <v>3918</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>4061</v>
+        <v>4091</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>4277</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>4177</v>
+        <v>4525</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4293</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>4787</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>5123</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>